--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -676,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,7 +687,7 @@
   <dimension ref="B2:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +773,9 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>100</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
@@ -857,7 +859,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1203,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -676,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +849,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1205,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>GitHub (up to 100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Basic Options (up to 130)</t>
@@ -676,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -686,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +696,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>46</v>
@@ -708,12 +705,12 @@
         <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -721,20 +718,20 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -749,10 +746,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -761,11 +758,11 @@
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
+      <c r="C8" s="6">
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -774,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -829,7 +826,9 @@
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
@@ -839,7 +838,9 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
       </c>
@@ -873,7 +874,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -883,7 +886,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -893,7 +898,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1010,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1013,9 +1022,7 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5">
-        <v>5</v>
-      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1023,7 +1030,7 @@
     </row>
     <row r="33" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
@@ -1205,7 +1212,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
